--- a/actorMovies.xlsx
+++ b/actorMovies.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>Title</t>
   </si>
@@ -23,161 +23,241 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Untitled Fred Astaire Biopic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Uncharted</t>
+    <t>DC League of Super-Pets</t>
   </si>
   <si>
     <t xml:space="preserve">
  2022</t>
   </si>
   <si>
-    <t>The Daily Bugle</t>
+    <t>Jack Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2018</t>
+  </si>
+  <si>
+    <t>Free Guy</t>
   </si>
   <si>
     <t xml:space="preserve">
  2021</t>
   </si>
   <si>
-    <t>Spider-Man: No Way Home</t>
-  </si>
-  <si>
-    <t>Venom: Let There Be Carnage</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Chaos Walking</t>
-  </si>
-  <si>
-    <t>The Devil All the Time</t>
+    <t>A Quiet Place Part II</t>
   </si>
   <si>
     <t xml:space="preserve">
  2020</t>
   </si>
   <si>
-    <t>Onward: Magic Gems</t>
-  </si>
-  <si>
-    <t>Onward</t>
-  </si>
-  <si>
-    <t>Dolittle</t>
-  </si>
-  <si>
-    <t>Spies in Disguise</t>
+    <t>Threat Level Midnight: The Movie</t>
   </si>
   <si>
     <t xml:space="preserve">
  2019</t>
   </si>
   <si>
-    <t>Audi Presents: Lunch Break</t>
-  </si>
-  <si>
-    <t>Peter's To-Do List</t>
-  </si>
-  <si>
-    <t>Spider-Man: Far from Home</t>
-  </si>
-  <si>
-    <t>Science Fair</t>
-  </si>
-  <si>
-    <t>Avengers: Endgame</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 2018</t>
-  </si>
-  <si>
-    <t>The Current War</t>
+    <t>Next Gen</t>
+  </si>
+  <si>
+    <t>A Quiet Place</t>
+  </si>
+  <si>
+    <t>Detroit</t>
   </si>
   <si>
     <t xml:space="preserve">
  2017</t>
   </si>
   <si>
-    <t>Peter Parker Takes His Driving Test</t>
-  </si>
-  <si>
-    <t>Spider-Man: Homecoming</t>
-  </si>
-  <si>
-    <t>Spider-Man: Homecoming, NBA Finals: Watch the Game</t>
-  </si>
-  <si>
-    <t>Pilgrimage</t>
-  </si>
-  <si>
-    <t>The Lost City of Z</t>
+    <t>Animal Crackers</t>
+  </si>
+  <si>
+    <t>Past Forward</t>
   </si>
   <si>
     <t xml:space="preserve">
  2016</t>
   </si>
   <si>
-    <t>Edge of Winter</t>
-  </si>
-  <si>
-    <t>Captain America: Civil War</t>
-  </si>
-  <si>
-    <t>In the Heart of the Sea</t>
+    <t>Robot Chicken</t>
+  </si>
+  <si>
+    <t>The Hollars</t>
+  </si>
+  <si>
+    <t>13 Hours</t>
+  </si>
+  <si>
+    <t>BoJack Horseman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2014</t>
+  </si>
+  <si>
+    <t>Aloha</t>
   </si>
   <si>
     <t xml:space="preserve">
  2015</t>
   </si>
   <si>
-    <t>Tweet</t>
-  </si>
-  <si>
-    <t>Wolf Hall</t>
-  </si>
-  <si>
-    <t>Billy Elliot: The Musical Live</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 2014</t>
-  </si>
-  <si>
-    <t>How I Live Now</t>
+    <t>Jimmy Kimmel Live!</t>
+  </si>
+  <si>
+    <t>The Prophet</t>
+  </si>
+  <si>
+    <t>Kaze tachinu</t>
   </si>
   <si>
     <t xml:space="preserve">
  2013</t>
   </si>
   <si>
-    <t>Locke</t>
-  </si>
-  <si>
-    <t>Moments</t>
-  </si>
-  <si>
-    <t>Lo imposible</t>
+    <t>Monsters University</t>
+  </si>
+  <si>
+    <t>Arrested Development</t>
+  </si>
+  <si>
+    <t>The Office</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2005</t>
+  </si>
+  <si>
+    <t>Promised Land</t>
   </si>
   <si>
     <t xml:space="preserve">
  2012</t>
   </si>
   <si>
-    <t>Kari-gurashi no Arietti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- 2010</t>
+    <t>Big Miracle</t>
+  </si>
+  <si>
+    <t>Nobody Walks</t>
+  </si>
+  <si>
+    <t>The Muppets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2011</t>
+  </si>
+  <si>
+    <t>Something Borrowed</t>
+  </si>
+  <si>
+    <t>It's Complicated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2009</t>
+  </si>
+  <si>
+    <t>Away We Go</t>
+  </si>
+  <si>
+    <t>Monsters vs. Aliens</t>
+  </si>
+  <si>
+    <t>Brief Interviews with Hideous Men</t>
+  </si>
+  <si>
+    <t>Leatherheads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2008</t>
+  </si>
+  <si>
+    <t>License to Wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2007</t>
+  </si>
+  <si>
+    <t>Shrek the Third</t>
+  </si>
+  <si>
+    <t>Smiley Face</t>
+  </si>
+  <si>
+    <t>American Dad!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2006</t>
+  </si>
+  <si>
+    <t>Dreamgirls</t>
+  </si>
+  <si>
+    <t>The Holiday</t>
+  </si>
+  <si>
+    <t>For Your Consideration</t>
+  </si>
+  <si>
+    <t>A New Wave</t>
+  </si>
+  <si>
+    <t>Doogal</t>
+  </si>
+  <si>
+    <t>Jarhead</t>
+  </si>
+  <si>
+    <t>Without a Trace</t>
+  </si>
+  <si>
+    <t>Duane Hopwood</t>
+  </si>
+  <si>
+    <t>CSI: Crime Scene Investigation</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2004</t>
+  </si>
+  <si>
+    <t>Kinsey</t>
+  </si>
+  <si>
+    <t>Law &amp; Order: Criminal Intent</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2003</t>
+  </si>
+  <si>
+    <t>Alma Mater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2002</t>
+  </si>
+  <si>
+    <t>Fighting Still Life</t>
+  </si>
+  <si>
+    <t>State and Main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 2000</t>
   </si>
 </sst>
 </file>
@@ -513,7 +593,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,68 +638,68 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -627,7 +707,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -635,178 +715,306 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
